--- a/medicine/Psychotrope/Cardinal_(bière)/Cardinal_(bière).xlsx
+++ b/medicine/Psychotrope/Cardinal_(bière)/Cardinal_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cardinal_(bi%C3%A8re)</t>
+          <t>Cardinal_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cardinal est une marque de bière blonde suisse de fermentation basse produite par la brasserie Cardinal. Jusqu'en 2011, elle est brassée dans la ville de Fribourg. Depuis elle est produite par Feldschlösschen à Rheinfelden.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cardinal_(bi%C3%A8re)</t>
+          <t>Cardinal_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bière Cardinal est originellement brassée à Fribourg, à la brasserie Cardinal. Néanmoins, en raison d'arrangements internes au cartel des producteurs de bière en Suisse[1], la Cardinal est aussi brassée en partie à Rheinfelden jusqu'en 1985, et à Wädenswil jusqu'en 1990[2], une année avant l'éclatement de ce dernier. En 2012, la brasserie Cardinal de Fribourg ferme et la bière Cardinal est brassée à Rheinfelden[3].
-En 1968, la Cardinal est produite à partir d'un moût d'une densité initiale de 11,6 °P[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bière Cardinal est originellement brassée à Fribourg, à la brasserie Cardinal. Néanmoins, en raison d'arrangements internes au cartel des producteurs de bière en Suisse, la Cardinal est aussi brassée en partie à Rheinfelden jusqu'en 1985, et à Wädenswil jusqu'en 1990, une année avant l'éclatement de ce dernier. En 2012, la brasserie Cardinal de Fribourg ferme et la bière Cardinal est brassée à Rheinfelden.
+En 1968, la Cardinal est produite à partir d'un moût d'une densité initiale de 11,6 °P.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cardinal_(bi%C3%A8re)</t>
+          <t>Cardinal_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Spéciale, 5,2 % alc. vol.
 Draft Originale, 4,7 % alc. vol.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cardinal_(bi%C3%A8re)</t>
+          <t>Cardinal_(bière)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,9 +597,11 @@
           <t>Sponsoring</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cardinal est sponsor de plusieurs clubs de sports et de festivals, principalement romands. Parmi eux, nous retrouvons[5],[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cardinal est sponsor de plusieurs clubs de sports et de festivals, principalement romands. Parmi eux, nous retrouvons, :
 clubs de hockey sur glace
 HC Fribourg-Gottéron
 Lausanne HC
